--- a/Archivos Excel/discs.xlsx
+++ b/Archivos Excel/discs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\SkyDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F0D14-8EC6-4863-8AAE-402F8FA66114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7C728-CCE5-4AA3-8F32-FCE4750D2414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6FF288F7-3723-42DC-BFE2-7109FC0E6959}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t xml:space="preserve"> 'Giant Steps'</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 'Revolcón'</t>
+  </si>
+  <si>
+    <t>insert into disc values(</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -468,19 +477,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7FEE40-B285-41E2-BBD7-CA15054E9D33}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2056</v>
       </c>
@@ -506,8 +515,12 @@
         <v>23</v>
       </c>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="str">
+        <f>CONCATENATE($J$9,A1,$J$11,B1,$J$11,C1,$J$11,D1,$J$11,E1,$J$11,F1,G1,$J$10)</f>
+        <v>insert into disc values(2056, 'Giant Steps', '1960-01-27', 'Digital', 'mp3', '1024 MB''');</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2984</v>
       </c>
@@ -531,8 +544,12 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="str">
+        <f t="shared" ref="K2:K8" si="0">CONCATENATE($J$9,A2,$J$11,B2,$J$11,C2,$J$11,D2,$J$11,E2,$J$11,F2,G2,$J$10)</f>
+        <v>insert into disc values(2984, 'A Love Supreme', '1964-12-09', 'Physical', '', '' 'CD');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1784</v>
       </c>
@@ -558,8 +575,12 @@
         <v>24</v>
       </c>
       <c r="J4" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into disc values(1784, 'The Incredible Jazz Guitar of Wes Montgomery', '1960-01-28','Digital', 'WAV', '2048 MB' '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3492</v>
       </c>
@@ -585,8 +606,12 @@
         <v>25</v>
       </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into disc values(3492, 'La patera', '1999-03-13', 'Physical', '', '' 'lp');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6321</v>
       </c>
@@ -610,8 +635,12 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into disc values(6321, 'Revolcón', '2000-02-06', 'Physical', '', '' 'CD');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3229</v>
       </c>
@@ -635,6 +664,25 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into disc values(3229, 'En mi hambre mando yo', '2011-09-27', 'Physical', '', '' 'CD');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Archivos Excel/discs.xlsx
+++ b/Archivos Excel/discs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D7C728-CCE5-4AA3-8F32-FCE4750D2414}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D3F6BE-41A7-4C1E-82A3-AA3A7FB3DE68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6FF288F7-3723-42DC-BFE2-7109FC0E6959}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t xml:space="preserve"> 'Giant Steps'</t>
   </si>
@@ -120,6 +121,54 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'The Rolling Stones'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1964-04-19'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'lp'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '12 X 5'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Aftermath'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1964-10-17'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1966-04-15'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Some Girls'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1978-06-09'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Voodoo Lounge'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1994-07-18'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'A Bigger Bang'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2005-09-06'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Blue &amp; Lonesome'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2016-12-02'</t>
+  </si>
+  <si>
+    <t>#The Rolling Stones´s Band ID: 781</t>
   </si>
 </sst>
 </file>
@@ -155,13 +204,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,9 +530,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F7FEE40-B285-41E2-BBD7-CA15054E9D33}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -516,8 +571,8 @@
       </c>
       <c r="J1" s="1"/>
       <c r="K1" t="str">
-        <f>CONCATENATE($J$9,A1,$J$11,B1,$J$11,C1,$J$11,D1,$J$11,E1,$J$11,F1,G1,$J$10)</f>
-        <v>insert into disc values(2056, 'Giant Steps', '1960-01-27', 'Digital', 'mp3', '1024 MB''');</v>
+        <f>CONCATENATE($J$21,A1,$J$23,B1,$J$23,C1,$J$23,D1,$J$23,E1,$J$23,F1,$J$23,G1,$J$22)</f>
+        <v>insert into disc values(2056, 'Giant Steps', '1960-01-27', 'Digital', 'mp3', '1024 MB','');</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -545,8 +600,14 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K8" si="0">CONCATENATE($J$9,A2,$J$11,B2,$J$11,C2,$J$11,D2,$J$11,E2,$J$11,F2,G2,$J$10)</f>
-        <v>insert into disc values(2984, 'A Love Supreme', '1964-12-09', 'Physical', '', '' 'CD');</v>
+        <f>CONCATENATE($J$21,A2,$J$23,B2,$J$23,C2,$J$23,D2,$J$23,E2,$J$23,F2,$J$23,G2,$J$22)</f>
+        <v>insert into disc values(2984, 'A Love Supreme', '1964-12-09', 'Physical', '', '', 'CD');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="str">
+        <f>CONCATENATE($J$21,A3,$J$23,B3,$J$23,C3,$J$23,D3,$J$23,E3,$J$23,F3,$J$23,G3,$J$22)</f>
+        <v>insert into disc values(,,,,,,);</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -576,8 +637,14 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into disc values(1784, 'The Incredible Jazz Guitar of Wes Montgomery', '1960-01-28','Digital', 'WAV', '2048 MB' '');</v>
+        <f>CONCATENATE($J$21,A4,$J$23,B4,$J$23,C4,$J$23,D4,$J$23,E4,$J$23,F4,$J$23,G4,$J$22)</f>
+        <v>insert into disc values(1784, 'The Incredible Jazz Guitar of Wes Montgomery', '1960-01-28','Digital', 'WAV', '2048 MB', '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" t="str">
+        <f>CONCATENATE($J$21,A5,$J$23,B5,$J$23,C5,$J$23,D5,$J$23,E5,$J$23,F5,$J$23,G5,$J$22)</f>
+        <v>insert into disc values(,,,,,,);</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -607,8 +674,8 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into disc values(3492, 'La patera', '1999-03-13', 'Physical', '', '' 'lp');</v>
+        <f>CONCATENATE($J$21,A6,$J$23,B6,$J$23,C6,$J$23,D6,$J$23,E6,$J$23,F6,$J$23,G6,$J$22)</f>
+        <v>insert into disc values(3492, 'La patera', '1999-03-13', 'Physical', '', '' ,'lp');</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -636,8 +703,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into disc values(6321, 'Revolcón', '2000-02-06', 'Physical', '', '' 'CD');</v>
+        <f>CONCATENATE($J$21,A7,$J$23,B7,$J$23,C7,$J$23,D7,$J$23,E7,$J$23,F7,$J$23,G7,$J$22)</f>
+        <v>insert into disc values(6321, 'Revolcón', '2000-02-06', 'Physical', '', '', 'CD');</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,27 +732,245 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into disc values(3229, 'En mi hambre mando yo', '2011-09-27', 'Physical', '', '' 'CD');</v>
+        <f>CONCATENATE($J$21,A8,$J$23,B8,$J$23,C8,$J$23,D8,$J$23,E8,$J$23,F8,$J$23,G8,$J$22)</f>
+        <v>insert into disc values(3229, 'En mi hambre mando yo', '2011-09-27', 'Physical', '', '', 'CD');</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
+      <c r="K9" t="str">
+        <f>CONCATENATE($J$21,A9,$J$23,B9,$J$23,C9,$J$23,D9,$J$23,E9,$J$23,F9,$J$23,G9,$J$22)</f>
+        <v>insert into disc values(,,,,,,);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" t="str">
+        <f>CONCATENATE($J$21,A10,$J$23,B10,$J$23,C10,$J$23,D10,$J$23,E10,$J$23,F10,$J$23,G10,$J$22)</f>
+        <v>insert into disc values(3282, 'The Rolling Stones', '1964-04-19', 'Physical', '', '', 'lp');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3627</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" t="str">
+        <f>CONCATENATE($J$21,A11,$J$23,B11,$J$23,C11,$J$23,D11,$J$23,E11,$J$23,F11,$J$23,G11,$J$22)</f>
+        <v>insert into disc values(3627, '12 X 5', '1964-10-17', 'Physical', '', '', 'lp');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7329</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" t="str">
+        <f>CONCATENATE($J$21,A12,$J$23,B12,$J$23,C12,$J$23,D12,$J$23,E12,$J$23,F12,$J$23,G12,$J$22)</f>
+        <v>insert into disc values(7329, 'Aftermath', '1966-04-15', 'Physical', '', '', 'lp');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7482</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" t="str">
+        <f>CONCATENATE($J$21,A13,$J$23,B13,$J$23,C13,$J$23,D13,$J$23,E13,$J$23,F13,$J$23,G13,$J$22)</f>
+        <v>insert into disc values(7482, 'Some Girls', '1978-06-09', 'Physical', '', '', 'lp');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5738</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" t="str">
+        <f>CONCATENATE($J$21,A14,$J$23,B14,$J$23,C14,$J$23,D14,$J$23,E14,$J$23,F14,$J$23,G14,$J$22)</f>
+        <v>insert into disc values(5738, 'Voodoo Lounge', '1994-07-18', 'Physical', '', '', 'lp');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6234</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" t="str">
+        <f>CONCATENATE($J$21,A15,$J$23,B15,$J$23,C15,$J$23,D15,$J$23,E15,$J$23,F15,$J$23,G15,$J$22)</f>
+        <v>insert into disc values(6234, 'A Bigger Bang', '2005-09-06', 'Physical', '', '', 'CD');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" t="str">
+        <f>CONCATENATE($J$21,A16,$J$23,B16,$J$23,C16,$J$23,D16,$J$23,E16,$J$23,F16,$J$23,G16,$J$22)</f>
+        <v>insert into disc values(7231, 'Blue &amp; Lonesome', '2016-12-02', 'Digital', 'mp3', '2048 MB', '');</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="I10:J16"/>
     <mergeCell ref="I1:J2"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I6:J8"/>

--- a/Archivos Excel/discs.xlsx
+++ b/Archivos Excel/discs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D3C7E4-DE98-4D4E-9EAD-DB457D7F417C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE66FF7E-159A-4E4F-8073-BF4978A12354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6FF288F7-3723-42DC-BFE2-7109FC0E6959}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6FF288F7-3723-42DC-BFE2-7109FC0E6959}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t xml:space="preserve"> 'Giant Steps'</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>#The Rolling Stones´s Band ID: 781</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Master of Puppets'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '2018-03-03'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '4096 MB'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Highway to Hell'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> '1979-11-06'</t>
   </si>
 </sst>
 </file>
@@ -532,7 +547,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,23 +961,67 @@
         <v>insert into disc values(7231, 'Blue &amp; Lonesome', '2016-12-02', 'Digital', 'mp3', '2048 MB', '');</v>
       </c>
     </row>
-    <row r="20" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8892</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>29</v>
       </c>
